--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3946383.288637057</v>
+        <v>3943811.33411915</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>133.35833737073</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>312.2150400306839</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>208.2793294336578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>219.672461107519</v>
+        <v>168.8841199149501</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>13.80890171427166</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>105.0839683962668</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>219.1570781143516</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>216.6993815150876</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>75.0888690599473</v>
       </c>
       <c r="Y13" t="n">
-        <v>76.17049831699812</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>103.8784673763408</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>229.2938944146487</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1646.746562480845</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1646.746562480845</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D2" t="n">
-        <v>1646.746562480845</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="E2" t="n">
-        <v>1260.958309882601</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>849.9724050929931</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2423.485734520778</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>2033.346402544967</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1525.74665604171</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="C5" t="n">
-        <v>1525.74665604171</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="D5" t="n">
-        <v>1167.480957434959</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="E5" t="n">
-        <v>1167.480957434959</v>
+        <v>558.6732226496763</v>
       </c>
       <c r="F5" t="n">
-        <v>756.4950526453517</v>
+        <v>551.7277219004728</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4598,19 +4598,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1525.74665604171</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,49 +4644,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2255.520561484594</v>
+        <v>955.5060781830496</v>
       </c>
       <c r="C8" t="n">
-        <v>1886.558044544182</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D8" t="n">
-        <v>1528.292345937431</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E8" t="n">
-        <v>1142.504093339187</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>731.5181885495797</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>313.5543804477666</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2025.937460860856</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1694.874573517285</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1342.105918247171</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1342.105918247171</v>
       </c>
       <c r="Y8" t="n">
-        <v>2642.120401548716</v>
+        <v>1342.105918247171</v>
       </c>
     </row>
     <row r="9">
@@ -4896,10 +4896,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5072,19 +5072,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>724.7519863413023</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C13" t="n">
-        <v>555.8158034133954</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y13" t="n">
-        <v>906.400451171542</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,10 +5288,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5367,16 +5367,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,7 +5747,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5756,19 +5756,19 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>365.9405071576786</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,10 +6218,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,13 +6233,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6312,19 +6312,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>184.7035232280583</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,10 +6923,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,10 +7187,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7257,22 +7257,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597619</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1025.119922845744</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1652.717886400351</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2204.627616639638</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,16 +7549,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7783,22 +7783,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,10 +8690,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9167,13 +9167,13 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10595,13 +10595,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>150.6207863290899</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.4141550350967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>112.4047682534902</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>41.54258064659049</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>57.22910392194231</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>629808.2225148411</v>
+        <v>629808.2225148409</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>629808.222514841</v>
+        <v>629808.2225148409</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.725617676</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="G2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786967.9346977562</v>
+      </c>
+      <c r="I2" t="n">
         <v>786967.9346977561</v>
       </c>
-      <c r="H2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.9346977557</v>
-      </c>
       <c r="J2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977562</v>
       </c>
       <c r="K2" t="n">
+        <v>786967.9346977554</v>
+      </c>
+      <c r="L2" t="n">
         <v>786967.9346977561</v>
       </c>
-      <c r="L2" t="n">
-        <v>786967.9346977557</v>
-      </c>
       <c r="M2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977563</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
       <c r="O2" t="n">
         <v>786967.9346977561</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977555</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577089</v>
+        <v>944372.7777577088</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080583</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670401</v>
+        <v>5067.592601670458</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.59260167046</v>
+        <v>5067.592601670467</v>
       </c>
       <c r="G4" t="n">
+        <v>5067.592601670469</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5067.592601670466</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5067.592601670443</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5067.59260167044</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5067.592601670437</v>
+      </c>
+      <c r="L4" t="n">
         <v>5067.592601670442</v>
       </c>
-      <c r="H4" t="n">
-        <v>5067.592601670461</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5067.592601670437</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5067.592601670437</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5067.592601670429</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>5067.592601670442</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5067.592601670439</v>
+      </c>
+      <c r="O4" t="n">
         <v>5067.592601670438</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5067.592601670467</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5067.592601670437</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5067.592601670454</v>
       </c>
       <c r="P4" t="n">
         <v>5067.592601670437</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-73375.73758800904</v>
+        <v>-73375.73758800913</v>
       </c>
       <c r="C6" t="n">
         <v>516592.1416265353</v>
       </c>
       <c r="D6" t="n">
-        <v>516592.1416265352</v>
+        <v>516592.1416265351</v>
       </c>
       <c r="E6" t="n">
-        <v>-263594.9654855306</v>
+        <v>-263629.7034109663</v>
       </c>
       <c r="F6" t="n">
-        <v>680777.8122721784</v>
+        <v>680743.0743467429</v>
       </c>
       <c r="G6" t="n">
-        <v>680777.8122721788</v>
+        <v>680743.0743467428</v>
       </c>
       <c r="H6" t="n">
-        <v>680777.8122721782</v>
+        <v>680743.0743467431</v>
       </c>
       <c r="I6" t="n">
-        <v>680777.8122721781</v>
+        <v>680743.0743467429</v>
       </c>
       <c r="J6" t="n">
-        <v>504354.5930795855</v>
+        <v>504319.8551541499</v>
       </c>
       <c r="K6" t="n">
-        <v>680777.8122721785</v>
+        <v>680743.0743467422</v>
       </c>
       <c r="L6" t="n">
-        <v>680777.8122721782</v>
+        <v>680743.0743467429</v>
       </c>
       <c r="M6" t="n">
-        <v>556569.30156412</v>
+        <v>556534.5636386847</v>
       </c>
       <c r="N6" t="n">
-        <v>680777.8122721782</v>
+        <v>680743.0743467428</v>
       </c>
       <c r="O6" t="n">
-        <v>680777.8122721786</v>
+        <v>680743.0743467429</v>
       </c>
       <c r="P6" t="n">
-        <v>680777.8122721782</v>
+        <v>680743.0743467424</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245873</v>
+        <v>990.2318361245871</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,13 +26978,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>248.5720327015318</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>101.5691299901111</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>56.25950038248513</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.30532391843704</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>194.111708913276</v>
+        <v>244.9000501058449</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,16 +27828,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>272.4729725277061</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>218.8388043680903</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>32.06708939393769</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>1.885271837007167</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28336,10 +28336,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32549,31 +32549,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L21" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33032,7 +33032,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>229.6463482471735</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,10 +33746,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>251.886104915025</v>
       </c>
       <c r="O36" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>485.927610870024</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,10 +34454,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>396.970088694367</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35887,13 +35887,13 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L21" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36680,7 +36680,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>91.80490927281453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37315,13 +37315,13 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,10 +37394,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="O36" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,10 +37786,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>351.9532034556937</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,10 +38102,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>254.8360547723487</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
